--- a/source/mysql/data.xlsx
+++ b/source/mysql/data.xlsx
@@ -28,6 +28,7 @@
     <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
+    <definedName name="_1400_cau_trac_nghiem_doc_hieu_tieng_anh_co_dap_an_cuc_hay_549" localSheetId="0">Sheet1!$A$1581:$A$1642</definedName>
     <definedName name="_1400_cau_trac_nghiem_doc_hieu_tieng_anh_co_dap_an_cuc_hay_549.html?mode_part_part_10" localSheetId="8">Sheet9!$A$83:$A$278</definedName>
     <definedName name="_1400_cau_trac_nghiem_doc_hieu_tieng_anh_co_dap_an_cuc_hay_549.html?mode_part_part_11" localSheetId="9">Sheet10!$A$71:$A$266</definedName>
     <definedName name="_1400_cau_trac_nghiem_doc_hieu_tieng_anh_co_dap_an_cuc_hay_549.html?mode_part_part_12" localSheetId="10">Sheet11!$A$74:$A$269</definedName>
@@ -82,7 +83,7 @@
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=16"/>
   </connection>
   <connection id="8" name="Connection16" type="4" refreshedVersion="6" deleted="1" background="1" saveData="1">
-    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1"/>
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" htmlTables="1"/>
   </connection>
   <connection id="9" name="Connection17" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=18"/>
@@ -99,29 +100,32 @@
   <connection id="13" name="Connection3" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=5"/>
   </connection>
-  <connection id="14" name="Connection4" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="14" name="Connection31" type="4" refreshedVersion="3" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html"/>
+  </connection>
+  <connection id="15" name="Connection4" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=6"/>
   </connection>
-  <connection id="15" name="Connection5" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="16" name="Connection5" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=7"/>
   </connection>
-  <connection id="16" name="Connection6" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="17" name="Connection6" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=8"/>
   </connection>
-  <connection id="17" name="Connection7" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="18" name="Connection7" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=9"/>
   </connection>
-  <connection id="18" name="Connection8" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="19" name="Connection8" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=10"/>
   </connection>
-  <connection id="19" name="Connection9" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="20" name="Connection9" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://tracnghiem.net/tieng-anh/1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=11"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1090">
   <si>
     <t>ADMICRO</t>
   </si>
@@ -3244,6 +3248,153 @@
   </si>
   <si>
     <t>D. to install a content screener on the computer</t>
+  </si>
+  <si>
+    <t>D. when we are not happy or lose something.</t>
+  </si>
+  <si>
+    <t>C. when we are angry with somebody about something.</t>
+  </si>
+  <si>
+    <t>B. when we have been impolite, rude or done something to hurt someone’s feeling.</t>
+  </si>
+  <si>
+    <t>A. when we feel tired and make mistake.</t>
+  </si>
+  <si>
+    <t>We should apologize .........</t>
+  </si>
+  <si>
+    <t>D. we admit our wrongdoing, offer a reason for it, and express regret.</t>
+  </si>
+  <si>
+    <t>C. we express our happiness.</t>
+  </si>
+  <si>
+    <t>B. we realize our wrongdoing.</t>
+  </si>
+  <si>
+    <t>A. we express our sadness and unluckiness.</t>
+  </si>
+  <si>
+    <t>When we apologize, ..............</t>
+  </si>
+  <si>
+    <t>D. become members of sports clubs</t>
+  </si>
+  <si>
+    <t>C. study by themselves</t>
+  </si>
+  <si>
+    <t>B. go to lectures</t>
+  </si>
+  <si>
+    <t>A. have other work</t>
+  </si>
+  <si>
+    <t>Students working for their first degree at university are called undergraduates. Then they take their degree we say they graduate, and then they are called graduates. If they continue studying at university after they have graduated, they are called post-graduates. Full-time university students spend all their free time studying. They have no other employment. Their course usually lasts for three or four years. Medical students have to follow a course lasting for six or seven years. Then they graduate as doctors. In Britain, full-time university students have three terms of about ten weeks in each year. During these terms they go to lectures or they study by themselves. Many students become members of academic societies and sports clubs and take part in their activities. Between the university terms they have vacations (or holiday periods). Their vacations are long, but of course they can use them to study at home.</t>
+  </si>
+  <si>
+    <t>Which of the following is NOT mentioned in the passage as full-time university students?</t>
+  </si>
+  <si>
+    <t>D. library</t>
+  </si>
+  <si>
+    <t>C. university</t>
+  </si>
+  <si>
+    <t>B. laboratory</t>
+  </si>
+  <si>
+    <t>A. an university</t>
+  </si>
+  <si>
+    <t>According to the passage, students working for their first degree at .............. are called undergraduates.</t>
+  </si>
+  <si>
+    <t>D. picnics</t>
+  </si>
+  <si>
+    <t>C. visits</t>
+  </si>
+  <si>
+    <t>B. holidays</t>
+  </si>
+  <si>
+    <t>A. times</t>
+  </si>
+  <si>
+    <t>The word “vacations” in line 9 could be best replaced by ..............</t>
+  </si>
+  <si>
+    <t>D. about 5 years</t>
+  </si>
+  <si>
+    <t>C. six or seven years</t>
+  </si>
+  <si>
+    <t>B. only 4 years</t>
+  </si>
+  <si>
+    <t>A. four to five years</t>
+  </si>
+  <si>
+    <t>Medical students have to follow a course lasting for ............</t>
+  </si>
+  <si>
+    <t>D. money</t>
+  </si>
+  <si>
+    <t>C. play</t>
+  </si>
+  <si>
+    <t>B. music</t>
+  </si>
+  <si>
+    <t>A. work</t>
+  </si>
+  <si>
+    <t>The word “employment” in line 4 refers to the ......</t>
+  </si>
+  <si>
+    <t>D. three terms</t>
+  </si>
+  <si>
+    <t>C. seven terms</t>
+  </si>
+  <si>
+    <t>B. four terms</t>
+  </si>
+  <si>
+    <t>A. two terms</t>
+  </si>
+  <si>
+    <t>According to the passage, the full-time university students have ............. of about 10 weeks in each year.</t>
+  </si>
+  <si>
+    <t>D. learn</t>
+  </si>
+  <si>
+    <t>A. finish studying</t>
+  </si>
+  <si>
+    <t>The word “graduate” in line 2 is closest in meaning to ......</t>
+  </si>
+  <si>
+    <t>D. post-graduates</t>
+  </si>
+  <si>
+    <t>C. undergraduates</t>
+  </si>
+  <si>
+    <t>B. pre-graduates</t>
+  </si>
+  <si>
+    <t>A. graduates</t>
+  </si>
+  <si>
+    <t>Students who continue studying at university after having graduated are called .........</t>
   </si>
 </sst>
 </file>
@@ -3299,79 +3450,83 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=6" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=7" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=8" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=9" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=10" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=11" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=12" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=13" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=14" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=15" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=17_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=18" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=16" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=2&amp;fbclid=IwAR1YCm9H7YUKsojhTSwn0OOK5TRDI9sUuvL7blZ1_HPPv06GxS3wSKzNvVs" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=20" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=7" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=8" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=9" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=10" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=11" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=12" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=13" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=14" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=15" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=18" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=19" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=17_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=16" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=2&amp;fbclid=IwAR1YCm9H7YUKsojhTSwn0OOK5TRDI9sUuvL7blZ1_HPPv06GxS3wSKzNvVs" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=4" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=5" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1400-cau-trac-nghiem-doc-hieu-tieng-anh-co-dap-an-cuc-hay-549.html?mode=part&amp;part=6" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3629,7 +3784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3637,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1580"/>
+  <dimension ref="A1:A1642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1568" workbookViewId="0">
-      <selection activeCell="A1496" sqref="A1496:A1580"/>
+    <sheetView tabSelected="1" topLeftCell="A1619" workbookViewId="0">
+      <selection activeCell="A1636" sqref="A1636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11546,6 +11701,316 @@
     <row r="1580" spans="1:1">
       <c r="A1580" t="s">
         <v>1040</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:1">
+      <c r="A1581" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:1">
+      <c r="A1582" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:1">
+      <c r="A1583" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:1">
+      <c r="A1584" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:1">
+      <c r="A1585" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:1">
+      <c r="A1586" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:1">
+      <c r="A1587" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:1">
+      <c r="A1588" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:1">
+      <c r="A1589" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:1">
+      <c r="A1590" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:1">
+      <c r="A1591" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:1">
+      <c r="A1592" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:1">
+      <c r="A1593" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:1">
+      <c r="A1594" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:1">
+      <c r="A1595" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:1">
+      <c r="A1596" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:1">
+      <c r="A1597" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:1">
+      <c r="A1598" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:1">
+      <c r="A1599" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:1">
+      <c r="A1600" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:1">
+      <c r="A1601" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:1">
+      <c r="A1602" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:1">
+      <c r="A1603" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:1">
+      <c r="A1604" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:1">
+      <c r="A1605" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:1">
+      <c r="A1606" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:1">
+      <c r="A1607" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:1">
+      <c r="A1608" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:1">
+      <c r="A1609" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:1">
+      <c r="A1610" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:1">
+      <c r="A1611" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:1">
+      <c r="A1612" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:1">
+      <c r="A1613" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:1">
+      <c r="A1614" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:1">
+      <c r="A1615" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:1">
+      <c r="A1616" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:1">
+      <c r="A1617" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:1">
+      <c r="A1618" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:1">
+      <c r="A1619" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:1">
+      <c r="A1620" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:1">
+      <c r="A1621" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:1">
+      <c r="A1622" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:1">
+      <c r="A1623" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:1">
+      <c r="A1624" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:1">
+      <c r="A1625" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:1">
+      <c r="A1626" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:1">
+      <c r="A1627" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:1">
+      <c r="A1628" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:1">
+      <c r="A1629" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:1">
+      <c r="A1630" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:1">
+      <c r="A1631" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:1">
+      <c r="A1632" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:1">
+      <c r="A1633" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:1">
+      <c r="A1634" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:1">
+      <c r="A1635" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:1">
+      <c r="A1636" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:1">
+      <c r="A1637" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:1">
+      <c r="A1638" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:1">
+      <c r="A1639" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:1">
+      <c r="A1640" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:1">
+      <c r="A1641" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:1">
+      <c r="A1642" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
